--- a/Фопи/Зарплата ФОП 2021/Угринчук.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Угринчук.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Фопи\Зарплата ФОП 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nastia\GitHub\Фопи\Зарплата ФОП 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760"/>
   </bookViews>
   <sheets>
-    <sheet name="08-21" sheetId="2" r:id="rId1"/>
-    <sheet name="07-21" sheetId="1" r:id="rId2"/>
+    <sheet name="09-21 " sheetId="3" r:id="rId1"/>
+    <sheet name="08-21" sheetId="2" r:id="rId2"/>
+    <sheet name="07-21" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>Розрахунково-платіжна відомість за ЛИПЕНЬ 2021 року</t>
   </si>
@@ -315,26 +316,26 @@
     <xf numFmtId="2" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -646,25 +647,25 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
@@ -677,16 +678,16 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="23" t="s">
@@ -698,55 +699,55 @@
       <c r="G7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="22" t="s">
         <v>13</v>
       </c>
       <c r="N7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
       <c r="N8" s="24"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -755,7 +756,7 @@
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="20">
         <v>2592218637</v>
       </c>
       <c r="D9" s="5">
@@ -867,18 +868,18 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="14">
         <v>0.22</v>
       </c>
@@ -899,18 +900,18 @@
       <c r="P15" s="16"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
       <c r="M16" s="19">
         <f>O10+M13</f>
         <v>2211.5186194610778</v>
@@ -919,6 +920,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -929,16 +940,6 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -977,25 +978,25 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
+      <c r="A3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
@@ -1004,20 +1005,20 @@
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="23" t="s">
@@ -1029,55 +1030,55 @@
       <c r="G7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="22" t="s">
         <v>13</v>
       </c>
       <c r="N7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
       <c r="N8" s="24"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1086,21 +1087,21 @@
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="20">
         <v>2592218637</v>
       </c>
       <c r="D9" s="5">
         <v>6000</v>
       </c>
       <c r="E9" s="5">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="F9" s="5">
         <v>0.75</v>
       </c>
       <c r="G9" s="5">
         <f>D9/E6*E9</f>
-        <v>1840.909090909091</v>
+        <v>4491.0179640718561</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5">
@@ -1109,30 +1110,30 @@
       <c r="J9" s="5"/>
       <c r="K9" s="7">
         <f>G9+H9+I9+J9</f>
-        <v>1921.7990909090911</v>
+        <v>4571.9079640718564</v>
       </c>
       <c r="L9" s="5">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="M9" s="5">
         <f>ROUND((K9)*18/100,2)</f>
-        <v>345.92</v>
+        <v>822.94</v>
       </c>
       <c r="N9" s="5">
         <f>K9*0.015</f>
-        <v>28.826986363636365</v>
+        <v>68.578619461077849</v>
       </c>
       <c r="O9" s="5">
         <f>M9+N9</f>
-        <v>374.74698636363638</v>
+        <v>891.51861946107795</v>
       </c>
       <c r="P9" s="5">
         <f>K9-O9</f>
-        <v>1547.0521045454548</v>
+        <v>3680.3893446107786</v>
       </c>
       <c r="Q9" s="5">
         <f>P9-L9</f>
-        <v>1547.0521045454548</v>
+        <v>1680.3893446107786</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1146,12 +1147,13 @@
         <v>6000</v>
       </c>
       <c r="E10" s="9">
-        <v>54</v>
+        <f>E9</f>
+        <v>125</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9">
         <f>SUM(G9)</f>
-        <v>1840.909090909091</v>
+        <v>4491.0179640718561</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9">
@@ -1161,53 +1163,54 @@
       <c r="J10" s="9"/>
       <c r="K10" s="10">
         <f>SUM(K9:K9)</f>
-        <v>1921.7990909090911</v>
+        <v>4571.9079640718564</v>
       </c>
       <c r="L10" s="9">
-        <v>0</v>
+        <f>L9</f>
+        <v>2000</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" ref="M10:P10" si="0">SUM(M9:M9)</f>
-        <v>345.92</v>
+        <v>822.94</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="0"/>
-        <v>28.826986363636365</v>
+        <v>68.578619461077849</v>
       </c>
       <c r="O10" s="11">
         <f t="shared" si="0"/>
-        <v>374.74698636363638</v>
+        <v>891.51861946107795</v>
       </c>
       <c r="P10" s="11">
         <f t="shared" si="0"/>
-        <v>1547.0521045454548</v>
+        <v>3680.3893446107786</v>
       </c>
       <c r="Q10" s="5">
         <f>P10-L10</f>
-        <v>1547.0521045454548</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1680.3893446107786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="M11" s="12"/>
       <c r="Q11" s="13">
         <f>Q10</f>
-        <v>1547.0521045454548</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>1680.3893446107786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="14">
         <v>0.22</v>
       </c>
@@ -1228,26 +1231,31 @@
       <c r="P15" s="16"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
       <c r="M16" s="19">
         <f>O10+M13</f>
-        <v>1694.7469863636363</v>
+        <v>2211.5186194610778</v>
       </c>
       <c r="O16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -1260,11 +1268,335 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q16"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+    </row>
+    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="20">
+        <v>2592218637</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>54</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G9" s="5">
+        <f>D9/E6*E9</f>
+        <v>1840.909090909091</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5">
+        <v>80.89</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="7">
+        <f>G9+H9+I9+J9</f>
+        <v>1921.7990909090911</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <f>ROUND((K9)*18/100,2)</f>
+        <v>345.92</v>
+      </c>
+      <c r="N9" s="5">
+        <f>K9*0.015</f>
+        <v>28.826986363636365</v>
+      </c>
+      <c r="O9" s="5">
+        <f>M9+N9</f>
+        <v>374.74698636363638</v>
+      </c>
+      <c r="P9" s="5">
+        <f>K9-O9</f>
+        <v>1547.0521045454548</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>P9-L9</f>
+        <v>1547.0521045454548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9">
+        <f>SUM(D9:D9)</f>
+        <v>6000</v>
+      </c>
+      <c r="E10" s="9">
+        <v>54</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9">
+        <f>SUM(G9)</f>
+        <v>1840.909090909091</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9">
+        <f>SUM(I9)</f>
+        <v>80.89</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10">
+        <f>SUM(K9:K9)</f>
+        <v>1921.7990909090911</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" ref="M10:P10" si="0">SUM(M9:M9)</f>
+        <v>345.92</v>
+      </c>
+      <c r="N10" s="11">
+        <f t="shared" si="0"/>
+        <v>28.826986363636365</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="0"/>
+        <v>374.74698636363638</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" si="0"/>
+        <v>1547.0521045454548</v>
+      </c>
+      <c r="Q10" s="5">
+        <f>P10-L10</f>
+        <v>1547.0521045454548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="12"/>
+      <c r="Q11" s="13">
+        <f>Q10</f>
+        <v>1547.0521045454548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="M13" s="15">
+        <v>1320</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M14" s="17"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N15" s="18"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="M16" s="19">
+        <f>O10+M13</f>
+        <v>1694.7469863636363</v>
+      </c>
+      <c r="O16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B16:K16"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>

--- a/Фопи/Зарплата ФОП 2021/Угринчук.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Угринчук.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nastia\GitHub\Фопи\Зарплата ФОП 2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6756" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="09-21 " sheetId="3" r:id="rId1"/>
     <sheet name="08-21" sheetId="2" r:id="rId2"/>
     <sheet name="07-21" sheetId="1" r:id="rId3"/>
+    <sheet name="ЗВІРКА 2021" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
   <si>
     <t>Розрахунково-платіжна відомість за ЛИПЕНЬ 2021 року</t>
   </si>
@@ -95,13 +92,76 @@
   </si>
   <si>
     <t>Феськів Роман Михайлович (з 20.07.21)</t>
+  </si>
+  <si>
+    <t>Розрахунково-платіжна відомість за ВЕРЕСЕНЬ 2021 року</t>
+  </si>
+  <si>
+    <t>ЄСВ з найманих осіб (22%)</t>
+  </si>
+  <si>
+    <t>ЄСВ (22%)</t>
+  </si>
+  <si>
+    <t>Військовий збір 1,5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Єдиний податок </t>
+  </si>
+  <si>
+    <t>Нараховано</t>
+  </si>
+  <si>
+    <t>січень</t>
+  </si>
+  <si>
+    <t>лютий</t>
+  </si>
+  <si>
+    <t>березень</t>
+  </si>
+  <si>
+    <t>квітень</t>
+  </si>
+  <si>
+    <t>травень</t>
+  </si>
+  <si>
+    <t>червень</t>
+  </si>
+  <si>
+    <t>липень</t>
+  </si>
+  <si>
+    <t>серпень</t>
+  </si>
+  <si>
+    <t>вересень</t>
+  </si>
+  <si>
+    <t>жовтень</t>
+  </si>
+  <si>
+    <t>листопад</t>
+  </si>
+  <si>
+    <t>грудень</t>
+  </si>
+  <si>
+    <t>Всього:</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>переплата</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -171,8 +231,60 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +303,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -256,6 +392,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD5D5D5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD5D5D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD5D5D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -263,7 +414,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -319,27 +470,84 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,7 +606,7 @@
     </a:clrScheme>
     <a:fontScheme name="Офіс">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -433,7 +641,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -610,7 +818,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -620,54 +828,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.90625" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-    </row>
-    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+    </row>
+    <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
@@ -678,76 +886,76 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="O7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="22" t="s">
+      <c r="P7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="22" t="s">
+      <c r="Q7" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -763,46 +971,44 @@
         <v>6000</v>
       </c>
       <c r="E9" s="5">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="F9" s="5">
         <v>0.75</v>
       </c>
       <c r="G9" s="5">
         <f>D9/E6*E9</f>
-        <v>4491.0179640718561</v>
+        <v>3161.6766467065868</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="5">
-        <v>80.89</v>
-      </c>
+      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="7">
         <f>G9+H9+I9+J9</f>
-        <v>4571.9079640718564</v>
+        <v>3161.6766467065868</v>
       </c>
       <c r="L9" s="5">
         <v>2000</v>
       </c>
       <c r="M9" s="5">
-        <f>ROUND((K9)*18/100,2)</f>
-        <v>822.94</v>
+        <f>ROUND((K9-1135)*18/100,2)</f>
+        <v>364.8</v>
       </c>
       <c r="N9" s="5">
         <f>K9*0.015</f>
-        <v>68.578619461077849</v>
+        <v>47.425149700598801</v>
       </c>
       <c r="O9" s="5">
         <f>M9+N9</f>
-        <v>891.51861946107795</v>
+        <v>412.22514970059882</v>
       </c>
       <c r="P9" s="5">
         <f>K9-O9</f>
-        <v>3680.3893446107786</v>
+        <v>2749.4514970059881</v>
       </c>
       <c r="Q9" s="5">
         <f>P9-L9</f>
-        <v>1680.3893446107786</v>
+        <v>749.45149700598813</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -817,22 +1023,22 @@
       </c>
       <c r="E10" s="9">
         <f>E9</f>
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9">
         <f>SUM(G9)</f>
-        <v>4491.0179640718561</v>
+        <v>3161.6766467065868</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9">
         <f>SUM(I9)</f>
-        <v>80.89</v>
+        <v>0</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="10">
         <f>SUM(K9:K9)</f>
-        <v>4571.9079640718564</v>
+        <v>3161.6766467065868</v>
       </c>
       <c r="L10" s="9">
         <f>L9</f>
@@ -840,46 +1046,46 @@
       </c>
       <c r="M10" s="11">
         <f t="shared" ref="M10:P10" si="0">SUM(M9:M9)</f>
-        <v>822.94</v>
+        <v>364.8</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="0"/>
-        <v>68.578619461077849</v>
+        <v>47.425149700598801</v>
       </c>
       <c r="O10" s="11">
         <f t="shared" si="0"/>
-        <v>891.51861946107795</v>
+        <v>412.22514970059882</v>
       </c>
       <c r="P10" s="11">
         <f t="shared" si="0"/>
-        <v>3680.3893446107786</v>
+        <v>2749.4514970059881</v>
       </c>
       <c r="Q10" s="5">
         <f>P10-L10</f>
-        <v>1680.3893446107786</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
+        <v>749.45149700598813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M11" s="12"/>
       <c r="Q11" s="13">
         <f>Q10</f>
-        <v>1680.3893446107786</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="25" t="s">
+        <v>749.45149700598813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="14">
         <v>0.22</v>
       </c>
@@ -889,37 +1095,47 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M14" s="17"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N15" s="18"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="25" t="s">
+    <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
       <c r="M16" s="19">
         <f>O10+M13</f>
-        <v>2211.5186194610778</v>
+        <v>1732.2251497005989</v>
       </c>
       <c r="O16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="B13:K13"/>
@@ -930,16 +1146,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -952,53 +1158,53 @@
   <dimension ref="A2:Q16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.90625" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-    </row>
-    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+    </row>
+    <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
@@ -1009,76 +1215,76 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="O7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="22" t="s">
+      <c r="P7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="22" t="s">
+      <c r="Q7" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1094,46 +1300,44 @@
         <v>6000</v>
       </c>
       <c r="E9" s="5">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="F9" s="5">
         <v>0.75</v>
       </c>
       <c r="G9" s="5">
         <f>D9/E6*E9</f>
-        <v>4491.0179640718561</v>
+        <v>3017.9640718562873</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="5">
-        <v>80.89</v>
-      </c>
+      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="7">
         <f>G9+H9+I9+J9</f>
-        <v>4571.9079640718564</v>
+        <v>3017.9640718562873</v>
       </c>
       <c r="L9" s="5">
         <v>2000</v>
       </c>
       <c r="M9" s="5">
-        <f>ROUND((K9)*18/100,2)</f>
-        <v>822.94</v>
+        <f>ROUND((K9-1135)*18/100,2)</f>
+        <v>338.93</v>
       </c>
       <c r="N9" s="5">
         <f>K9*0.015</f>
-        <v>68.578619461077849</v>
+        <v>45.269461077844305</v>
       </c>
       <c r="O9" s="5">
         <f>M9+N9</f>
-        <v>891.51861946107795</v>
+        <v>384.19946107784432</v>
       </c>
       <c r="P9" s="5">
         <f>K9-O9</f>
-        <v>3680.3893446107786</v>
+        <v>2633.7646107784431</v>
       </c>
       <c r="Q9" s="5">
         <f>P9-L9</f>
-        <v>1680.3893446107786</v>
+        <v>633.76461077844306</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1148,22 +1352,22 @@
       </c>
       <c r="E10" s="9">
         <f>E9</f>
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9">
         <f>SUM(G9)</f>
-        <v>4491.0179640718561</v>
+        <v>3017.9640718562873</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9">
         <f>SUM(I9)</f>
-        <v>80.89</v>
+        <v>0</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="10">
         <f>SUM(K9:K9)</f>
-        <v>4571.9079640718564</v>
+        <v>3017.9640718562873</v>
       </c>
       <c r="L10" s="9">
         <f>L9</f>
@@ -1171,46 +1375,46 @@
       </c>
       <c r="M10" s="11">
         <f t="shared" ref="M10:P10" si="0">SUM(M9:M9)</f>
-        <v>822.94</v>
+        <v>338.93</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="0"/>
-        <v>68.578619461077849</v>
+        <v>45.269461077844305</v>
       </c>
       <c r="O10" s="11">
         <f t="shared" si="0"/>
-        <v>891.51861946107795</v>
+        <v>384.19946107784432</v>
       </c>
       <c r="P10" s="11">
         <f t="shared" si="0"/>
-        <v>3680.3893446107786</v>
+        <v>2633.7646107784431</v>
       </c>
       <c r="Q10" s="5">
         <f>P10-L10</f>
-        <v>1680.3893446107786</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
+        <v>633.76461077844306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M11" s="12"/>
       <c r="Q11" s="13">
         <f>Q10</f>
-        <v>1680.3893446107786</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="25" t="s">
+        <v>633.76461077844306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="14">
         <v>0.22</v>
       </c>
@@ -1220,42 +1424,37 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M14" s="17"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N15" s="18"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="25" t="s">
+    <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
       <c r="M16" s="19">
         <f>O10+M13</f>
-        <v>2211.5186194610778</v>
+        <v>1704.1994610778443</v>
       </c>
       <c r="O16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -1271,6 +1470,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -1283,53 +1487,53 @@
   <dimension ref="A2:Q16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.90625" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-    </row>
-    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+    </row>
+    <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
@@ -1340,76 +1544,76 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="O7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="22" t="s">
+      <c r="P7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="22" t="s">
+      <c r="Q7" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1425,46 +1629,44 @@
         <v>6000</v>
       </c>
       <c r="E9" s="5">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F9" s="5">
         <v>0.75</v>
       </c>
       <c r="G9" s="5">
         <f>D9/E6*E9</f>
-        <v>1840.909090909091</v>
+        <v>1227.2727272727275</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="5">
-        <v>80.89</v>
-      </c>
+      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="7">
         <f>G9+H9+I9+J9</f>
-        <v>1921.7990909090911</v>
+        <v>1227.2727272727275</v>
       </c>
       <c r="L9" s="5">
         <v>0</v>
       </c>
       <c r="M9" s="5">
-        <f>ROUND((K9)*18/100,2)</f>
-        <v>345.92</v>
+        <f>ROUND((K9-1135)*18/100,2)</f>
+        <v>16.61</v>
       </c>
       <c r="N9" s="5">
         <f>K9*0.015</f>
-        <v>28.826986363636365</v>
+        <v>18.40909090909091</v>
       </c>
       <c r="O9" s="5">
         <f>M9+N9</f>
-        <v>374.74698636363638</v>
+        <v>35.019090909090906</v>
       </c>
       <c r="P9" s="5">
         <f>K9-O9</f>
-        <v>1547.0521045454548</v>
+        <v>1192.2536363636366</v>
       </c>
       <c r="Q9" s="5">
         <f>P9-L9</f>
-        <v>1547.0521045454548</v>
+        <v>1192.2536363636366</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1483,108 +1685,104 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9">
         <f>SUM(G9)</f>
-        <v>1840.909090909091</v>
+        <v>1227.2727272727275</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9">
         <f>SUM(I9)</f>
-        <v>80.89</v>
+        <v>0</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="10">
         <f>SUM(K9:K9)</f>
-        <v>1921.7990909090911</v>
+        <v>1227.2727272727275</v>
       </c>
       <c r="L10" s="9">
         <v>0</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" ref="M10:P10" si="0">SUM(M9:M9)</f>
-        <v>345.92</v>
+        <v>16.61</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="0"/>
-        <v>28.826986363636365</v>
+        <v>18.40909090909091</v>
       </c>
       <c r="O10" s="11">
         <f t="shared" si="0"/>
-        <v>374.74698636363638</v>
+        <v>35.019090909090906</v>
       </c>
       <c r="P10" s="11">
         <f t="shared" si="0"/>
-        <v>1547.0521045454548</v>
+        <v>1192.2536363636366</v>
       </c>
       <c r="Q10" s="5">
         <f>P10-L10</f>
-        <v>1547.0521045454548</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1192.2536363636366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M11" s="12"/>
       <c r="Q11" s="13">
         <f>Q10</f>
-        <v>1547.0521045454548</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="25" t="s">
+        <v>1192.2536363636366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="14">
         <v>0.22</v>
       </c>
       <c r="M13" s="15">
-        <v>1320</v>
+        <f>K10*0.22</f>
+        <v>270.00000000000006</v>
       </c>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M14" s="17"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N15" s="18"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="25" t="s">
+    <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
       <c r="M16" s="19">
         <f>O10+M13</f>
-        <v>1694.7469863636363</v>
+        <v>305.01909090909095</v>
       </c>
       <c r="O16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -1600,9 +1798,588 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="13" customWidth="1"/>
+    <col min="258" max="258" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="13.6640625" customWidth="1"/>
+    <col min="260" max="262" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="13" customWidth="1"/>
+    <col min="514" max="514" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="13.6640625" customWidth="1"/>
+    <col min="516" max="518" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="13" customWidth="1"/>
+    <col min="770" max="770" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="13.6640625" customWidth="1"/>
+    <col min="772" max="774" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="13" customWidth="1"/>
+    <col min="1026" max="1026" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="13.6640625" customWidth="1"/>
+    <col min="1028" max="1030" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="13" customWidth="1"/>
+    <col min="1282" max="1282" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="13.6640625" customWidth="1"/>
+    <col min="1284" max="1286" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="13" customWidth="1"/>
+    <col min="1538" max="1538" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="13.6640625" customWidth="1"/>
+    <col min="1540" max="1542" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="13" customWidth="1"/>
+    <col min="1794" max="1794" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="13.6640625" customWidth="1"/>
+    <col min="1796" max="1798" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="13" customWidth="1"/>
+    <col min="2050" max="2050" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="13.6640625" customWidth="1"/>
+    <col min="2052" max="2054" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="13" customWidth="1"/>
+    <col min="2306" max="2306" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="13.6640625" customWidth="1"/>
+    <col min="2308" max="2310" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="13" customWidth="1"/>
+    <col min="2562" max="2562" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="13.6640625" customWidth="1"/>
+    <col min="2564" max="2566" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="13" customWidth="1"/>
+    <col min="2818" max="2818" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="13.6640625" customWidth="1"/>
+    <col min="2820" max="2822" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="13" customWidth="1"/>
+    <col min="3074" max="3074" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="13.6640625" customWidth="1"/>
+    <col min="3076" max="3078" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="13" customWidth="1"/>
+    <col min="3330" max="3330" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="13.6640625" customWidth="1"/>
+    <col min="3332" max="3334" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="13" customWidth="1"/>
+    <col min="3586" max="3586" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="13.6640625" customWidth="1"/>
+    <col min="3588" max="3590" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="13" customWidth="1"/>
+    <col min="3842" max="3842" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="13.6640625" customWidth="1"/>
+    <col min="3844" max="3846" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="13" customWidth="1"/>
+    <col min="4098" max="4098" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="13.6640625" customWidth="1"/>
+    <col min="4100" max="4102" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="13" customWidth="1"/>
+    <col min="4354" max="4354" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="13.6640625" customWidth="1"/>
+    <col min="4356" max="4358" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="13" customWidth="1"/>
+    <col min="4610" max="4610" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="13.6640625" customWidth="1"/>
+    <col min="4612" max="4614" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="13" customWidth="1"/>
+    <col min="4866" max="4866" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="13.6640625" customWidth="1"/>
+    <col min="4868" max="4870" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="13" customWidth="1"/>
+    <col min="5122" max="5122" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="13.6640625" customWidth="1"/>
+    <col min="5124" max="5126" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="13" customWidth="1"/>
+    <col min="5378" max="5378" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="13.6640625" customWidth="1"/>
+    <col min="5380" max="5382" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="13" customWidth="1"/>
+    <col min="5634" max="5634" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="13.6640625" customWidth="1"/>
+    <col min="5636" max="5638" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="13" customWidth="1"/>
+    <col min="5890" max="5890" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="13.6640625" customWidth="1"/>
+    <col min="5892" max="5894" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="13" customWidth="1"/>
+    <col min="6146" max="6146" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="13.6640625" customWidth="1"/>
+    <col min="6148" max="6150" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="13" customWidth="1"/>
+    <col min="6402" max="6402" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="13.6640625" customWidth="1"/>
+    <col min="6404" max="6406" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="13" customWidth="1"/>
+    <col min="6658" max="6658" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="13.6640625" customWidth="1"/>
+    <col min="6660" max="6662" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="13" customWidth="1"/>
+    <col min="6914" max="6914" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="13.6640625" customWidth="1"/>
+    <col min="6916" max="6918" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="13" customWidth="1"/>
+    <col min="7170" max="7170" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="13.6640625" customWidth="1"/>
+    <col min="7172" max="7174" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="13" customWidth="1"/>
+    <col min="7426" max="7426" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="13.6640625" customWidth="1"/>
+    <col min="7428" max="7430" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="13" customWidth="1"/>
+    <col min="7682" max="7682" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="13.6640625" customWidth="1"/>
+    <col min="7684" max="7686" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="13" customWidth="1"/>
+    <col min="7938" max="7938" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="13.6640625" customWidth="1"/>
+    <col min="7940" max="7942" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="13" customWidth="1"/>
+    <col min="8194" max="8194" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="13.6640625" customWidth="1"/>
+    <col min="8196" max="8198" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="13" customWidth="1"/>
+    <col min="8450" max="8450" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="13.6640625" customWidth="1"/>
+    <col min="8452" max="8454" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="13" customWidth="1"/>
+    <col min="8706" max="8706" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="13.6640625" customWidth="1"/>
+    <col min="8708" max="8710" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="13" customWidth="1"/>
+    <col min="8962" max="8962" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="13.6640625" customWidth="1"/>
+    <col min="8964" max="8966" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="13" customWidth="1"/>
+    <col min="9218" max="9218" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="13.6640625" customWidth="1"/>
+    <col min="9220" max="9222" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="13" customWidth="1"/>
+    <col min="9474" max="9474" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="13.6640625" customWidth="1"/>
+    <col min="9476" max="9478" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="13" customWidth="1"/>
+    <col min="9730" max="9730" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="13.6640625" customWidth="1"/>
+    <col min="9732" max="9734" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="13" customWidth="1"/>
+    <col min="9986" max="9986" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="13.6640625" customWidth="1"/>
+    <col min="9988" max="9990" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="13" customWidth="1"/>
+    <col min="10242" max="10242" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="13.6640625" customWidth="1"/>
+    <col min="10244" max="10246" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="13" customWidth="1"/>
+    <col min="10498" max="10498" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="13.6640625" customWidth="1"/>
+    <col min="10500" max="10502" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="13" customWidth="1"/>
+    <col min="10754" max="10754" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="13.6640625" customWidth="1"/>
+    <col min="10756" max="10758" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="13" customWidth="1"/>
+    <col min="11010" max="11010" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="13.6640625" customWidth="1"/>
+    <col min="11012" max="11014" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="13" customWidth="1"/>
+    <col min="11266" max="11266" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="13.6640625" customWidth="1"/>
+    <col min="11268" max="11270" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="13" customWidth="1"/>
+    <col min="11522" max="11522" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="13.6640625" customWidth="1"/>
+    <col min="11524" max="11526" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="13" customWidth="1"/>
+    <col min="11778" max="11778" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="13.6640625" customWidth="1"/>
+    <col min="11780" max="11782" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="13" customWidth="1"/>
+    <col min="12034" max="12034" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="13.6640625" customWidth="1"/>
+    <col min="12036" max="12038" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="13" customWidth="1"/>
+    <col min="12290" max="12290" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="13.6640625" customWidth="1"/>
+    <col min="12292" max="12294" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="13" customWidth="1"/>
+    <col min="12546" max="12546" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="13.6640625" customWidth="1"/>
+    <col min="12548" max="12550" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="13" customWidth="1"/>
+    <col min="12802" max="12802" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="13.6640625" customWidth="1"/>
+    <col min="12804" max="12806" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="13" customWidth="1"/>
+    <col min="13058" max="13058" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="13.6640625" customWidth="1"/>
+    <col min="13060" max="13062" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="13" customWidth="1"/>
+    <col min="13314" max="13314" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="13.6640625" customWidth="1"/>
+    <col min="13316" max="13318" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="13" customWidth="1"/>
+    <col min="13570" max="13570" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="13.6640625" customWidth="1"/>
+    <col min="13572" max="13574" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="13" customWidth="1"/>
+    <col min="13826" max="13826" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="13.6640625" customWidth="1"/>
+    <col min="13828" max="13830" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="13" customWidth="1"/>
+    <col min="14082" max="14082" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="13.6640625" customWidth="1"/>
+    <col min="14084" max="14086" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="13" customWidth="1"/>
+    <col min="14338" max="14338" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="13.6640625" customWidth="1"/>
+    <col min="14340" max="14342" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="13" customWidth="1"/>
+    <col min="14594" max="14594" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="13.6640625" customWidth="1"/>
+    <col min="14596" max="14598" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="13" customWidth="1"/>
+    <col min="14850" max="14850" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="13.6640625" customWidth="1"/>
+    <col min="14852" max="14854" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="13" customWidth="1"/>
+    <col min="15106" max="15106" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="13.6640625" customWidth="1"/>
+    <col min="15108" max="15110" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="13" customWidth="1"/>
+    <col min="15362" max="15362" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="13.6640625" customWidth="1"/>
+    <col min="15364" max="15366" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="13" customWidth="1"/>
+    <col min="15618" max="15618" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="13.6640625" customWidth="1"/>
+    <col min="15620" max="15622" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="13" customWidth="1"/>
+    <col min="15874" max="15874" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="13.6640625" customWidth="1"/>
+    <col min="15876" max="15878" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="13" customWidth="1"/>
+    <col min="16130" max="16130" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="13.6640625" customWidth="1"/>
+    <col min="16132" max="16134" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="str">
+        <f>A15</f>
+        <v>грудень</v>
+      </c>
+      <c r="B3" s="29">
+        <v>10</v>
+      </c>
+      <c r="C3" s="29">
+        <v>40</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="29">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="33">
+        <v>270</v>
+      </c>
+      <c r="C10" s="33">
+        <v>1320</v>
+      </c>
+      <c r="D10" s="33">
+        <v>16.61</v>
+      </c>
+      <c r="E10" s="33">
+        <v>18.41</v>
+      </c>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="33">
+        <v>1320</v>
+      </c>
+      <c r="C11" s="33">
+        <v>1320</v>
+      </c>
+      <c r="D11" s="33">
+        <v>338.93</v>
+      </c>
+      <c r="E11" s="33">
+        <v>45.27</v>
+      </c>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="33">
+        <v>1320</v>
+      </c>
+      <c r="C12" s="33">
+        <v>1320</v>
+      </c>
+      <c r="D12" s="33">
+        <v>364.8</v>
+      </c>
+      <c r="E12" s="33">
+        <v>47.43</v>
+      </c>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="35">
+        <f>SUM(B4:B15)</f>
+        <v>2910</v>
+      </c>
+      <c r="C16" s="35">
+        <f>SUM(C4:C15)</f>
+        <v>3960</v>
+      </c>
+      <c r="D16" s="35">
+        <f>SUM(D4:D15)</f>
+        <v>720.34</v>
+      </c>
+      <c r="E16" s="35">
+        <f>SUM(E4:E15)</f>
+        <v>111.11000000000001</v>
+      </c>
+      <c r="F16" s="35">
+        <f>SUM(F4:F15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="37">
+        <v>0</v>
+      </c>
+      <c r="C17" s="38">
+        <v>0</v>
+      </c>
+      <c r="D17" s="39">
+        <v>0</v>
+      </c>
+      <c r="E17" s="39">
+        <v>0</v>
+      </c>
+      <c r="F17" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="41">
+        <f>B17-B16+B3</f>
+        <v>-2900</v>
+      </c>
+      <c r="C18" s="41">
+        <f>C17-C16+C3</f>
+        <v>-3920</v>
+      </c>
+      <c r="D18" s="42">
+        <f>D17-D16+D3</f>
+        <v>-720.34</v>
+      </c>
+      <c r="E18" s="42">
+        <f>E17-E16+E3</f>
+        <v>-111.11000000000001</v>
+      </c>
+      <c r="F18" s="42">
+        <f>F17-F16+F3</f>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="44"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="F21" s="46"/>
+    </row>
+    <row r="24" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Фопи/Зарплата ФОП 2021/Угринчук.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Угринчук.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nastia\GitHub\Фопи\Зарплата ФОП 2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6756" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="09-21 " sheetId="3" r:id="rId1"/>
-    <sheet name="08-21" sheetId="2" r:id="rId2"/>
-    <sheet name="07-21" sheetId="1" r:id="rId3"/>
-    <sheet name="ЗВІРКА 2021" sheetId="4" r:id="rId4"/>
-    <sheet name="Лист2" sheetId="5" r:id="rId5"/>
+    <sheet name="10-21 " sheetId="6" r:id="rId1"/>
+    <sheet name="09-21 " sheetId="3" r:id="rId2"/>
+    <sheet name="08-21" sheetId="2" r:id="rId3"/>
+    <sheet name="07-21" sheetId="1" r:id="rId4"/>
+    <sheet name="ЗВІРКА 2021" sheetId="4" r:id="rId5"/>
+    <sheet name="Лист2" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
   <si>
     <t>Розрахунково-платіжна відомість за ЛИПЕНЬ 2021 року</t>
   </si>
@@ -155,12 +161,15 @@
   </si>
   <si>
     <t>переплата</t>
+  </si>
+  <si>
+    <t>Розрахунково-платіжна відомість за ЖОВТЕНЬ 2021 року</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -470,27 +479,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -545,9 +533,30 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -818,7 +827,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -829,53 +838,53 @@
   <dimension ref="A2:Q16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="7" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="7" width="10.6328125" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
@@ -886,76 +895,76 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="42" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1065,27 +1074,27 @@
         <v>749.45149700598813</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="M11" s="12"/>
       <c r="Q11" s="13">
         <f>Q10</f>
         <v>749.45149700598813</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="22" t="s">
+    <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
       <c r="L13" s="14">
         <v>0.22</v>
       </c>
@@ -1095,29 +1104,29 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="M14" s="17"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N15" s="18"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="22" t="s">
+    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
       <c r="M16" s="19">
         <f>O10+M13</f>
         <v>1732.2251497005989</v>
@@ -1126,6 +1135,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -1136,16 +1155,6 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -1158,53 +1167,53 @@
   <dimension ref="A2:Q16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="7" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="7" width="10.6328125" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
@@ -1215,76 +1224,76 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="42" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1300,44 +1309,44 @@
         <v>6000</v>
       </c>
       <c r="E9" s="5">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F9" s="5">
         <v>0.75</v>
       </c>
       <c r="G9" s="5">
         <f>D9/E6*E9</f>
-        <v>3017.9640718562873</v>
+        <v>3161.6766467065868</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="7">
         <f>G9+H9+I9+J9</f>
-        <v>3017.9640718562873</v>
+        <v>3161.6766467065868</v>
       </c>
       <c r="L9" s="5">
         <v>2000</v>
       </c>
       <c r="M9" s="5">
         <f>ROUND((K9-1135)*18/100,2)</f>
-        <v>338.93</v>
+        <v>364.8</v>
       </c>
       <c r="N9" s="5">
         <f>K9*0.015</f>
-        <v>45.269461077844305</v>
+        <v>47.425149700598801</v>
       </c>
       <c r="O9" s="5">
         <f>M9+N9</f>
-        <v>384.19946107784432</v>
+        <v>412.22514970059882</v>
       </c>
       <c r="P9" s="5">
         <f>K9-O9</f>
-        <v>2633.7646107784431</v>
+        <v>2749.4514970059881</v>
       </c>
       <c r="Q9" s="5">
         <f>P9-L9</f>
-        <v>633.76461077844306</v>
+        <v>749.45149700598813</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1352,12 +1361,12 @@
       </c>
       <c r="E10" s="9">
         <f>E9</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9">
         <f>SUM(G9)</f>
-        <v>3017.9640718562873</v>
+        <v>3161.6766467065868</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9">
@@ -1367,7 +1376,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="10">
         <f>SUM(K9:K9)</f>
-        <v>3017.9640718562873</v>
+        <v>3161.6766467065868</v>
       </c>
       <c r="L10" s="9">
         <f>L9</f>
@@ -1375,46 +1384,46 @@
       </c>
       <c r="M10" s="11">
         <f t="shared" ref="M10:P10" si="0">SUM(M9:M9)</f>
-        <v>338.93</v>
+        <v>364.8</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="0"/>
-        <v>45.269461077844305</v>
+        <v>47.425149700598801</v>
       </c>
       <c r="O10" s="11">
         <f t="shared" si="0"/>
-        <v>384.19946107784432</v>
+        <v>412.22514970059882</v>
       </c>
       <c r="P10" s="11">
         <f t="shared" si="0"/>
-        <v>2633.7646107784431</v>
+        <v>2749.4514970059881</v>
       </c>
       <c r="Q10" s="5">
         <f>P10-L10</f>
-        <v>633.76461077844306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>749.45149700598813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="M11" s="12"/>
       <c r="Q11" s="13">
         <f>Q10</f>
-        <v>633.76461077844306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="22" t="s">
+        <v>749.45149700598813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
       <c r="L13" s="14">
         <v>0.22</v>
       </c>
@@ -1424,37 +1433,42 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="M14" s="17"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N15" s="18"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="22" t="s">
+    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
       <c r="M16" s="19">
         <f>O10+M13</f>
-        <v>1704.1994610778443</v>
+        <v>1732.2251497005989</v>
       </c>
       <c r="O16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -1470,11 +1484,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -1487,133 +1496,133 @@
   <dimension ref="A2:Q16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="7" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="7" width="10.6328125" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-    </row>
-    <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="42" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1629,44 +1638,44 @@
         <v>6000</v>
       </c>
       <c r="E9" s="5">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F9" s="5">
         <v>0.75</v>
       </c>
       <c r="G9" s="5">
         <f>D9/E6*E9</f>
-        <v>1227.2727272727275</v>
+        <v>3017.9640718562873</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="7">
         <f>G9+H9+I9+J9</f>
-        <v>1227.2727272727275</v>
+        <v>3017.9640718562873</v>
       </c>
       <c r="L9" s="5">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="M9" s="5">
         <f>ROUND((K9-1135)*18/100,2)</f>
-        <v>16.61</v>
+        <v>338.93</v>
       </c>
       <c r="N9" s="5">
         <f>K9*0.015</f>
-        <v>18.40909090909091</v>
+        <v>45.269461077844305</v>
       </c>
       <c r="O9" s="5">
         <f>M9+N9</f>
-        <v>35.019090909090906</v>
+        <v>384.19946107784432</v>
       </c>
       <c r="P9" s="5">
         <f>K9-O9</f>
-        <v>1192.2536363636366</v>
+        <v>2633.7646107784431</v>
       </c>
       <c r="Q9" s="5">
         <f>P9-L9</f>
-        <v>1192.2536363636366</v>
+        <v>633.76461077844306</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1680,12 +1689,13 @@
         <v>6000</v>
       </c>
       <c r="E10" s="9">
-        <v>54</v>
+        <f>E9</f>
+        <v>84</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9">
         <f>SUM(G9)</f>
-        <v>1227.2727272727275</v>
+        <v>3017.9640718562873</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9">
@@ -1695,94 +1705,99 @@
       <c r="J10" s="9"/>
       <c r="K10" s="10">
         <f>SUM(K9:K9)</f>
-        <v>1227.2727272727275</v>
+        <v>3017.9640718562873</v>
       </c>
       <c r="L10" s="9">
-        <v>0</v>
+        <f>L9</f>
+        <v>2000</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" ref="M10:P10" si="0">SUM(M9:M9)</f>
-        <v>16.61</v>
+        <v>338.93</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="0"/>
-        <v>18.40909090909091</v>
+        <v>45.269461077844305</v>
       </c>
       <c r="O10" s="11">
         <f t="shared" si="0"/>
-        <v>35.019090909090906</v>
+        <v>384.19946107784432</v>
       </c>
       <c r="P10" s="11">
         <f t="shared" si="0"/>
-        <v>1192.2536363636366</v>
+        <v>2633.7646107784431</v>
       </c>
       <c r="Q10" s="5">
         <f>P10-L10</f>
-        <v>1192.2536363636366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>633.76461077844306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="M11" s="12"/>
       <c r="Q11" s="13">
         <f>Q10</f>
-        <v>1192.2536363636366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="22" t="s">
+        <v>633.76461077844306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
       <c r="L13" s="14">
         <v>0.22</v>
       </c>
       <c r="M13" s="15">
-        <f>K10*0.22</f>
-        <v>270.00000000000006</v>
+        <v>1320</v>
       </c>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="M14" s="17"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N15" s="18"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="22" t="s">
+    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
       <c r="M16" s="19">
         <f>O10+M13</f>
-        <v>305.01909090909095</v>
+        <v>1704.1994610778443</v>
       </c>
       <c r="O16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -1798,11 +1813,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -1812,557 +1822,885 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q16"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+    </row>
+    <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="20">
+        <v>2592218637</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>36</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G9" s="5">
+        <f>D9/E6*E9</f>
+        <v>1227.2727272727275</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="7">
+        <f>G9+H9+I9+J9</f>
+        <v>1227.2727272727275</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <f>ROUND((K9-1135)*18/100,2)</f>
+        <v>16.61</v>
+      </c>
+      <c r="N9" s="5">
+        <f>K9*0.015</f>
+        <v>18.40909090909091</v>
+      </c>
+      <c r="O9" s="5">
+        <f>M9+N9</f>
+        <v>35.019090909090906</v>
+      </c>
+      <c r="P9" s="5">
+        <f>K9-O9</f>
+        <v>1192.2536363636366</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>P9-L9</f>
+        <v>1192.2536363636366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9">
+        <f>SUM(D9:D9)</f>
+        <v>6000</v>
+      </c>
+      <c r="E10" s="9">
+        <v>54</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9">
+        <f>SUM(G9)</f>
+        <v>1227.2727272727275</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9">
+        <f>SUM(I9)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10">
+        <f>SUM(K9:K9)</f>
+        <v>1227.2727272727275</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" ref="M10:P10" si="0">SUM(M9:M9)</f>
+        <v>16.61</v>
+      </c>
+      <c r="N10" s="11">
+        <f t="shared" si="0"/>
+        <v>18.40909090909091</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="0"/>
+        <v>35.019090909090906</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" si="0"/>
+        <v>1192.2536363636366</v>
+      </c>
+      <c r="Q10" s="5">
+        <f>P10-L10</f>
+        <v>1192.2536363636366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="12"/>
+      <c r="Q11" s="13">
+        <f>Q10</f>
+        <v>1192.2536363636366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="M13" s="15">
+        <f>K10*0.22</f>
+        <v>270.00000000000006</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M14" s="17"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N15" s="18"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="M16" s="19">
+        <f>O10+M13</f>
+        <v>305.01909090909095</v>
+      </c>
+      <c r="O16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
+    <col min="4" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="257" max="257" width="13" customWidth="1"/>
-    <col min="258" max="258" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="13.6640625" customWidth="1"/>
-    <col min="260" max="262" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="13.6328125" customWidth="1"/>
+    <col min="260" max="262" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="513" max="513" width="13" customWidth="1"/>
-    <col min="514" max="514" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="13.6640625" customWidth="1"/>
-    <col min="516" max="518" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="13.6328125" customWidth="1"/>
+    <col min="516" max="518" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="769" max="769" width="13" customWidth="1"/>
-    <col min="770" max="770" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="13.6640625" customWidth="1"/>
-    <col min="772" max="774" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="13.6328125" customWidth="1"/>
+    <col min="772" max="774" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="1025" max="1025" width="13" customWidth="1"/>
-    <col min="1026" max="1026" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="13.6640625" customWidth="1"/>
-    <col min="1028" max="1030" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="13.6328125" customWidth="1"/>
+    <col min="1028" max="1030" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="1281" max="1281" width="13" customWidth="1"/>
-    <col min="1282" max="1282" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="13.6640625" customWidth="1"/>
-    <col min="1284" max="1286" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="13.6328125" customWidth="1"/>
+    <col min="1284" max="1286" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="1537" max="1537" width="13" customWidth="1"/>
-    <col min="1538" max="1538" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="13.6640625" customWidth="1"/>
-    <col min="1540" max="1542" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="13.6328125" customWidth="1"/>
+    <col min="1540" max="1542" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="1793" max="1793" width="13" customWidth="1"/>
-    <col min="1794" max="1794" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="13.6640625" customWidth="1"/>
-    <col min="1796" max="1798" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="13.6328125" customWidth="1"/>
+    <col min="1796" max="1798" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="2049" max="2049" width="13" customWidth="1"/>
-    <col min="2050" max="2050" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="13.6640625" customWidth="1"/>
-    <col min="2052" max="2054" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="13.6328125" customWidth="1"/>
+    <col min="2052" max="2054" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="2305" max="2305" width="13" customWidth="1"/>
-    <col min="2306" max="2306" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="13.6640625" customWidth="1"/>
-    <col min="2308" max="2310" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="13.6328125" customWidth="1"/>
+    <col min="2308" max="2310" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="2561" max="2561" width="13" customWidth="1"/>
-    <col min="2562" max="2562" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="13.6640625" customWidth="1"/>
-    <col min="2564" max="2566" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="13.6328125" customWidth="1"/>
+    <col min="2564" max="2566" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="2817" max="2817" width="13" customWidth="1"/>
-    <col min="2818" max="2818" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="13.6640625" customWidth="1"/>
-    <col min="2820" max="2822" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="13.6328125" customWidth="1"/>
+    <col min="2820" max="2822" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="3073" max="3073" width="13" customWidth="1"/>
-    <col min="3074" max="3074" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="13.6640625" customWidth="1"/>
-    <col min="3076" max="3078" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="13.6328125" customWidth="1"/>
+    <col min="3076" max="3078" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="3329" max="3329" width="13" customWidth="1"/>
-    <col min="3330" max="3330" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="13.6640625" customWidth="1"/>
-    <col min="3332" max="3334" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="13.6328125" customWidth="1"/>
+    <col min="3332" max="3334" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="3585" max="3585" width="13" customWidth="1"/>
-    <col min="3586" max="3586" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="13.6640625" customWidth="1"/>
-    <col min="3588" max="3590" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="13.6328125" customWidth="1"/>
+    <col min="3588" max="3590" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="3841" max="3841" width="13" customWidth="1"/>
-    <col min="3842" max="3842" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="13.6640625" customWidth="1"/>
-    <col min="3844" max="3846" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="13.6328125" customWidth="1"/>
+    <col min="3844" max="3846" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="4097" max="4097" width="13" customWidth="1"/>
-    <col min="4098" max="4098" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="13.6640625" customWidth="1"/>
-    <col min="4100" max="4102" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="13.6328125" customWidth="1"/>
+    <col min="4100" max="4102" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="4353" max="4353" width="13" customWidth="1"/>
-    <col min="4354" max="4354" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="13.6640625" customWidth="1"/>
-    <col min="4356" max="4358" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="13.6328125" customWidth="1"/>
+    <col min="4356" max="4358" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="4609" max="4609" width="13" customWidth="1"/>
-    <col min="4610" max="4610" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="13.6640625" customWidth="1"/>
-    <col min="4612" max="4614" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="13.6328125" customWidth="1"/>
+    <col min="4612" max="4614" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="4865" max="4865" width="13" customWidth="1"/>
-    <col min="4866" max="4866" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="13.6640625" customWidth="1"/>
-    <col min="4868" max="4870" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="13.6328125" customWidth="1"/>
+    <col min="4868" max="4870" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="5121" max="5121" width="13" customWidth="1"/>
-    <col min="5122" max="5122" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="13.6640625" customWidth="1"/>
-    <col min="5124" max="5126" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="13.6328125" customWidth="1"/>
+    <col min="5124" max="5126" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="5377" max="5377" width="13" customWidth="1"/>
-    <col min="5378" max="5378" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="13.6640625" customWidth="1"/>
-    <col min="5380" max="5382" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="13.6328125" customWidth="1"/>
+    <col min="5380" max="5382" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="5633" max="5633" width="13" customWidth="1"/>
-    <col min="5634" max="5634" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="13.6640625" customWidth="1"/>
-    <col min="5636" max="5638" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="13.6328125" customWidth="1"/>
+    <col min="5636" max="5638" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="5889" max="5889" width="13" customWidth="1"/>
-    <col min="5890" max="5890" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="13.6640625" customWidth="1"/>
-    <col min="5892" max="5894" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="13.6328125" customWidth="1"/>
+    <col min="5892" max="5894" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="6145" max="6145" width="13" customWidth="1"/>
-    <col min="6146" max="6146" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="13.6640625" customWidth="1"/>
-    <col min="6148" max="6150" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="13.6328125" customWidth="1"/>
+    <col min="6148" max="6150" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="6401" max="6401" width="13" customWidth="1"/>
-    <col min="6402" max="6402" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="13.6640625" customWidth="1"/>
-    <col min="6404" max="6406" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="13.6328125" customWidth="1"/>
+    <col min="6404" max="6406" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="6657" max="6657" width="13" customWidth="1"/>
-    <col min="6658" max="6658" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="13.6640625" customWidth="1"/>
-    <col min="6660" max="6662" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="13.6328125" customWidth="1"/>
+    <col min="6660" max="6662" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="6913" max="6913" width="13" customWidth="1"/>
-    <col min="6914" max="6914" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="13.6640625" customWidth="1"/>
-    <col min="6916" max="6918" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="13.6328125" customWidth="1"/>
+    <col min="6916" max="6918" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="7169" max="7169" width="13" customWidth="1"/>
-    <col min="7170" max="7170" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="13.6640625" customWidth="1"/>
-    <col min="7172" max="7174" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="13.6328125" customWidth="1"/>
+    <col min="7172" max="7174" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="7425" max="7425" width="13" customWidth="1"/>
-    <col min="7426" max="7426" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="13.6640625" customWidth="1"/>
-    <col min="7428" max="7430" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="13.6328125" customWidth="1"/>
+    <col min="7428" max="7430" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="7681" max="7681" width="13" customWidth="1"/>
-    <col min="7682" max="7682" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="13.6640625" customWidth="1"/>
-    <col min="7684" max="7686" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="13.6328125" customWidth="1"/>
+    <col min="7684" max="7686" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="7937" max="7937" width="13" customWidth="1"/>
-    <col min="7938" max="7938" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="13.6640625" customWidth="1"/>
-    <col min="7940" max="7942" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="13.6328125" customWidth="1"/>
+    <col min="7940" max="7942" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="8193" max="8193" width="13" customWidth="1"/>
-    <col min="8194" max="8194" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="13.6640625" customWidth="1"/>
-    <col min="8196" max="8198" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="13.6328125" customWidth="1"/>
+    <col min="8196" max="8198" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="8449" max="8449" width="13" customWidth="1"/>
-    <col min="8450" max="8450" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="13.6640625" customWidth="1"/>
-    <col min="8452" max="8454" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="13.6328125" customWidth="1"/>
+    <col min="8452" max="8454" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="8705" max="8705" width="13" customWidth="1"/>
-    <col min="8706" max="8706" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="13.6640625" customWidth="1"/>
-    <col min="8708" max="8710" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="13.6328125" customWidth="1"/>
+    <col min="8708" max="8710" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="8961" max="8961" width="13" customWidth="1"/>
-    <col min="8962" max="8962" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="13.6640625" customWidth="1"/>
-    <col min="8964" max="8966" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="13.6328125" customWidth="1"/>
+    <col min="8964" max="8966" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="9217" max="9217" width="13" customWidth="1"/>
-    <col min="9218" max="9218" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="13.6640625" customWidth="1"/>
-    <col min="9220" max="9222" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="13.6328125" customWidth="1"/>
+    <col min="9220" max="9222" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="9473" max="9473" width="13" customWidth="1"/>
-    <col min="9474" max="9474" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="13.6640625" customWidth="1"/>
-    <col min="9476" max="9478" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="13.6328125" customWidth="1"/>
+    <col min="9476" max="9478" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="9729" max="9729" width="13" customWidth="1"/>
-    <col min="9730" max="9730" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="13.6640625" customWidth="1"/>
-    <col min="9732" max="9734" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="13.6328125" customWidth="1"/>
+    <col min="9732" max="9734" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="9985" max="9985" width="13" customWidth="1"/>
-    <col min="9986" max="9986" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="13.6640625" customWidth="1"/>
-    <col min="9988" max="9990" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="13.6328125" customWidth="1"/>
+    <col min="9988" max="9990" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="10241" max="10241" width="13" customWidth="1"/>
-    <col min="10242" max="10242" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="13.6640625" customWidth="1"/>
-    <col min="10244" max="10246" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="13.6328125" customWidth="1"/>
+    <col min="10244" max="10246" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="10497" max="10497" width="13" customWidth="1"/>
-    <col min="10498" max="10498" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="13.6640625" customWidth="1"/>
-    <col min="10500" max="10502" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="13.6328125" customWidth="1"/>
+    <col min="10500" max="10502" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="10753" max="10753" width="13" customWidth="1"/>
-    <col min="10754" max="10754" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="13.6640625" customWidth="1"/>
-    <col min="10756" max="10758" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="13.6328125" customWidth="1"/>
+    <col min="10756" max="10758" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="11009" max="11009" width="13" customWidth="1"/>
-    <col min="11010" max="11010" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="13.6640625" customWidth="1"/>
-    <col min="11012" max="11014" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="13.6328125" customWidth="1"/>
+    <col min="11012" max="11014" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="11265" max="11265" width="13" customWidth="1"/>
-    <col min="11266" max="11266" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="13.6640625" customWidth="1"/>
-    <col min="11268" max="11270" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="13.6328125" customWidth="1"/>
+    <col min="11268" max="11270" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="11521" max="11521" width="13" customWidth="1"/>
-    <col min="11522" max="11522" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="13.6640625" customWidth="1"/>
-    <col min="11524" max="11526" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="13.6328125" customWidth="1"/>
+    <col min="11524" max="11526" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="11777" max="11777" width="13" customWidth="1"/>
-    <col min="11778" max="11778" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="13.6640625" customWidth="1"/>
-    <col min="11780" max="11782" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="13.6328125" customWidth="1"/>
+    <col min="11780" max="11782" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="12033" max="12033" width="13" customWidth="1"/>
-    <col min="12034" max="12034" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="13.6640625" customWidth="1"/>
-    <col min="12036" max="12038" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="13.6328125" customWidth="1"/>
+    <col min="12036" max="12038" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="12289" max="12289" width="13" customWidth="1"/>
-    <col min="12290" max="12290" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="13.6640625" customWidth="1"/>
-    <col min="12292" max="12294" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="13.6328125" customWidth="1"/>
+    <col min="12292" max="12294" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="12545" max="12545" width="13" customWidth="1"/>
-    <col min="12546" max="12546" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="13.6640625" customWidth="1"/>
-    <col min="12548" max="12550" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="13.6328125" customWidth="1"/>
+    <col min="12548" max="12550" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="12801" max="12801" width="13" customWidth="1"/>
-    <col min="12802" max="12802" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="13.6640625" customWidth="1"/>
-    <col min="12804" max="12806" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="13.6328125" customWidth="1"/>
+    <col min="12804" max="12806" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="13057" max="13057" width="13" customWidth="1"/>
-    <col min="13058" max="13058" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="13.6640625" customWidth="1"/>
-    <col min="13060" max="13062" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="13.6328125" customWidth="1"/>
+    <col min="13060" max="13062" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="13313" max="13313" width="13" customWidth="1"/>
-    <col min="13314" max="13314" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="13.6640625" customWidth="1"/>
-    <col min="13316" max="13318" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="13.6328125" customWidth="1"/>
+    <col min="13316" max="13318" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="13569" max="13569" width="13" customWidth="1"/>
-    <col min="13570" max="13570" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="13.6640625" customWidth="1"/>
-    <col min="13572" max="13574" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="13.6328125" customWidth="1"/>
+    <col min="13572" max="13574" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="13825" max="13825" width="13" customWidth="1"/>
-    <col min="13826" max="13826" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="13.6640625" customWidth="1"/>
-    <col min="13828" max="13830" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="13.6328125" customWidth="1"/>
+    <col min="13828" max="13830" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="14081" max="14081" width="13" customWidth="1"/>
-    <col min="14082" max="14082" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="13.6640625" customWidth="1"/>
-    <col min="14084" max="14086" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="13.6328125" customWidth="1"/>
+    <col min="14084" max="14086" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="14337" max="14337" width="13" customWidth="1"/>
-    <col min="14338" max="14338" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="13.6640625" customWidth="1"/>
-    <col min="14340" max="14342" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="13.6328125" customWidth="1"/>
+    <col min="14340" max="14342" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="14593" max="14593" width="13" customWidth="1"/>
-    <col min="14594" max="14594" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="13.6640625" customWidth="1"/>
-    <col min="14596" max="14598" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="13.6328125" customWidth="1"/>
+    <col min="14596" max="14598" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="14849" max="14849" width="13" customWidth="1"/>
-    <col min="14850" max="14850" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="13.6640625" customWidth="1"/>
-    <col min="14852" max="14854" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="13.6328125" customWidth="1"/>
+    <col min="14852" max="14854" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="15105" max="15105" width="13" customWidth="1"/>
-    <col min="15106" max="15106" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="13.6640625" customWidth="1"/>
-    <col min="15108" max="15110" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="13.6328125" customWidth="1"/>
+    <col min="15108" max="15110" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="15361" max="15361" width="13" customWidth="1"/>
-    <col min="15362" max="15362" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="13.6640625" customWidth="1"/>
-    <col min="15364" max="15366" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="13.6328125" customWidth="1"/>
+    <col min="15364" max="15366" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="15617" max="15617" width="13" customWidth="1"/>
-    <col min="15618" max="15618" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="13.6640625" customWidth="1"/>
-    <col min="15620" max="15622" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="13.6328125" customWidth="1"/>
+    <col min="15620" max="15622" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="15873" max="15873" width="13" customWidth="1"/>
-    <col min="15874" max="15874" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="13.6640625" customWidth="1"/>
-    <col min="15876" max="15878" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="13.6328125" customWidth="1"/>
+    <col min="15876" max="15878" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="16129" max="16129" width="13" customWidth="1"/>
-    <col min="16130" max="16130" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="13.6640625" customWidth="1"/>
-    <col min="16132" max="16134" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="13.6328125" customWidth="1"/>
+    <col min="16132" max="16134" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="47"/>
+      <c r="B1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="str">
+    <row r="3" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="str">
         <f>A15</f>
         <v>грудень</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="22">
         <v>10</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="22">
         <v>40</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="29">
+      <c r="D3" s="22"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="22">
         <v>6.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="26">
         <v>270</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="26">
         <v>1320</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="26">
         <v>16.61</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="26">
         <v>18.41</v>
       </c>
-      <c r="F10" s="33"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="26">
         <v>1320</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="26">
         <v>1320</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="26">
         <v>338.93</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="26">
         <v>45.27</v>
       </c>
-      <c r="F11" s="33"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="26">
         <v>1320</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="26">
         <v>1320</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="26">
         <v>364.8</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="26">
         <v>47.43</v>
       </c>
-      <c r="F12" s="33"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="28">
         <f>SUM(B4:B15)</f>
         <v>2910</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="28">
         <f>SUM(C4:C15)</f>
         <v>3960</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="28">
         <f>SUM(D4:D15)</f>
         <v>720.34</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="28">
         <f>SUM(E4:E15)</f>
         <v>111.11000000000001</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="28">
         <f>SUM(F4:F15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="30">
         <v>0</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="31">
         <v>0</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="32">
         <v>0</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="32">
         <v>0</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+    <row r="18" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="34">
         <f>B17-B16+B3</f>
         <v>-2900</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="34">
         <f>C17-C16+C3</f>
         <v>-3920</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="35">
         <f>D17-D16+D3</f>
         <v>-720.34</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="35">
         <f>E17-E16+E3</f>
         <v>-111.11000000000001</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="35">
         <f>F17-F16+F3</f>
         <v>6.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="44"/>
+    <row r="19" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="F21" s="46"/>
-    </row>
-    <row r="24" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
+    <row r="21" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="F21" s="39"/>
+    </row>
+    <row r="24" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2372,13 +2710,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Фопи/Зарплата ФОП 2021/Угринчук.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Угринчук.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760"/>
   </bookViews>
   <sheets>
-    <sheet name="10-21 " sheetId="6" r:id="rId1"/>
-    <sheet name="09-21 " sheetId="3" r:id="rId2"/>
-    <sheet name="08-21" sheetId="2" r:id="rId3"/>
-    <sheet name="07-21" sheetId="1" r:id="rId4"/>
-    <sheet name="ЗВІРКА 2021" sheetId="4" r:id="rId5"/>
-    <sheet name="Лист2" sheetId="5" r:id="rId6"/>
+    <sheet name="10-21  (2)" sheetId="7" r:id="rId1"/>
+    <sheet name="10-21 " sheetId="6" r:id="rId2"/>
+    <sheet name="09-21 " sheetId="3" r:id="rId3"/>
+    <sheet name="08-21" sheetId="2" r:id="rId4"/>
+    <sheet name="07-21" sheetId="1" r:id="rId5"/>
+    <sheet name="ЗВІРКА 2021" sheetId="4" r:id="rId6"/>
+    <sheet name="Лист2" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="45">
   <si>
     <t>Розрахунково-платіжна відомість за ЛИПЕНЬ 2021 року</t>
   </si>
@@ -533,23 +534,23 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -615,7 +616,7 @@
     </a:clrScheme>
     <a:fontScheme name="Офіс">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -650,7 +651,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -837,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -864,25 +865,25 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
@@ -891,80 +892,80 @@
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="L7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="43" t="s">
+      <c r="N7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="42" t="s">
+      <c r="P7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="42" t="s">
+      <c r="Q7" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -987,37 +988,37 @@
       </c>
       <c r="G9" s="5">
         <f>D9/E6*E9</f>
-        <v>3161.6766467065868</v>
+        <v>3000</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="7">
         <f>G9+H9+I9+J9</f>
-        <v>3161.6766467065868</v>
+        <v>3000</v>
       </c>
       <c r="L9" s="5">
         <v>2000</v>
       </c>
       <c r="M9" s="5">
         <f>ROUND((K9-1135)*18/100,2)</f>
-        <v>364.8</v>
+        <v>335.7</v>
       </c>
       <c r="N9" s="5">
         <f>K9*0.015</f>
-        <v>47.425149700598801</v>
+        <v>45</v>
       </c>
       <c r="O9" s="5">
         <f>M9+N9</f>
-        <v>412.22514970059882</v>
+        <v>380.7</v>
       </c>
       <c r="P9" s="5">
         <f>K9-O9</f>
-        <v>2749.4514970059881</v>
+        <v>2619.3000000000002</v>
       </c>
       <c r="Q9" s="5">
         <f>P9-L9</f>
-        <v>749.45149700598813</v>
+        <v>619.30000000000018</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1037,7 +1038,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9">
         <f>SUM(G9)</f>
-        <v>3161.6766467065868</v>
+        <v>3000</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9">
@@ -1047,7 +1048,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="10">
         <f>SUM(K9:K9)</f>
-        <v>3161.6766467065868</v>
+        <v>3000</v>
       </c>
       <c r="L10" s="9">
         <f>L9</f>
@@ -1055,46 +1056,46 @@
       </c>
       <c r="M10" s="11">
         <f t="shared" ref="M10:P10" si="0">SUM(M9:M9)</f>
-        <v>364.8</v>
+        <v>335.7</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="0"/>
-        <v>47.425149700598801</v>
+        <v>45</v>
       </c>
       <c r="O10" s="11">
         <f t="shared" si="0"/>
-        <v>412.22514970059882</v>
+        <v>380.7</v>
       </c>
       <c r="P10" s="11">
         <f t="shared" si="0"/>
-        <v>2749.4514970059881</v>
+        <v>2619.3000000000002</v>
       </c>
       <c r="Q10" s="5">
         <f>P10-L10</f>
-        <v>749.45149700598813</v>
+        <v>619.30000000000018</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="M11" s="12"/>
       <c r="Q11" s="13">
         <f>Q10</f>
-        <v>749.45149700598813</v>
+        <v>619.30000000000018</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
       <c r="L13" s="14">
         <v>0.22</v>
       </c>
@@ -1115,21 +1116,21 @@
       <c r="P15" s="16"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
       <c r="M16" s="19">
         <f>O10+M13</f>
-        <v>1732.2251497005989</v>
+        <v>1700.7</v>
       </c>
       <c r="O16" s="16"/>
     </row>
@@ -1167,6 +1168,335 @@
   <dimension ref="A2:Q16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+    </row>
+    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+    </row>
+    <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="20">
+        <v>2592218637</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>88</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G9" s="5">
+        <f>D9/E6*E9</f>
+        <v>3161.6766467065868</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="7">
+        <f>G9+H9+I9+J9</f>
+        <v>3161.6766467065868</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2000</v>
+      </c>
+      <c r="M9" s="5">
+        <f>ROUND((K9-1135)*18/100,2)</f>
+        <v>364.8</v>
+      </c>
+      <c r="N9" s="5">
+        <f>K9*0.015</f>
+        <v>47.425149700598801</v>
+      </c>
+      <c r="O9" s="5">
+        <f>M9+N9</f>
+        <v>412.22514970059882</v>
+      </c>
+      <c r="P9" s="5">
+        <f>K9-O9</f>
+        <v>2749.4514970059881</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>P9-L9</f>
+        <v>749.45149700598813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9">
+        <f>SUM(D9:D9)</f>
+        <v>6000</v>
+      </c>
+      <c r="E10" s="9">
+        <f>E9</f>
+        <v>88</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9">
+        <f>SUM(G9)</f>
+        <v>3161.6766467065868</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9">
+        <f>SUM(I9)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10">
+        <f>SUM(K9:K9)</f>
+        <v>3161.6766467065868</v>
+      </c>
+      <c r="L10" s="9">
+        <f>L9</f>
+        <v>2000</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" ref="M10:P10" si="0">SUM(M9:M9)</f>
+        <v>364.8</v>
+      </c>
+      <c r="N10" s="11">
+        <f t="shared" si="0"/>
+        <v>47.425149700598801</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="0"/>
+        <v>412.22514970059882</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" si="0"/>
+        <v>2749.4514970059881</v>
+      </c>
+      <c r="Q10" s="5">
+        <f>P10-L10</f>
+        <v>749.45149700598813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
+      <c r="M11" s="12"/>
+      <c r="Q11" s="13">
+        <f>Q10</f>
+        <v>749.45149700598813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="M13" s="15">
+        <v>1320</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M14" s="17"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N15" s="18"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="M16" s="19">
+        <f>O10+M13</f>
+        <v>1732.2251497005989</v>
+      </c>
+      <c r="O16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q16"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -1193,25 +1523,25 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
@@ -1224,76 +1554,76 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="L7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="43" t="s">
+      <c r="N7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="42" t="s">
+      <c r="P7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="42" t="s">
+      <c r="Q7" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1412,18 +1742,18 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
       <c r="L13" s="14">
         <v>0.22</v>
       </c>
@@ -1444,18 +1774,18 @@
       <c r="P15" s="16"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
       <c r="M16" s="19">
         <f>O10+M13</f>
         <v>1732.2251497005989</v>
@@ -1464,11 +1794,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -1484,6 +1809,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -1491,7 +1821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q16"/>
   <sheetViews>
@@ -1522,25 +1852,25 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
@@ -1553,76 +1883,76 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="L7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="43" t="s">
+      <c r="N7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="42" t="s">
+      <c r="P7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="42" t="s">
+      <c r="Q7" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1741,18 +2071,18 @@
     </row>
     <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
       <c r="L13" s="14">
         <v>0.22</v>
       </c>
@@ -1773,18 +2103,18 @@
       <c r="P15" s="16"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
       <c r="M16" s="19">
         <f>O10+M13</f>
         <v>1704.1994610778443</v>
@@ -1793,11 +2123,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -1813,6 +2138,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -1820,7 +2150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q16"/>
   <sheetViews>
@@ -1851,25 +2181,25 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
@@ -1882,76 +2212,76 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="L7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="43" t="s">
+      <c r="N7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="42" t="s">
+      <c r="P7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="42" t="s">
+      <c r="Q7" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -2068,18 +2398,18 @@
     </row>
     <row r="12" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
       <c r="L13" s="14">
         <v>0.22</v>
       </c>
@@ -2101,18 +2431,18 @@
       <c r="P15" s="16"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
       <c r="M16" s="19">
         <f>O10+M13</f>
         <v>305.01909090909095</v>
@@ -2121,11 +2451,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2141,6 +2466,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -2148,11 +2478,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2710,7 +3040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Фопи/Зарплата ФОП 2021/Угринчук.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Угринчук.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="46">
   <si>
     <t>Розрахунково-платіжна відомість за ЛИПЕНЬ 2021 року</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Розрахунково-платіжна відомість за ЖОВТЕНЬ 2021 року</t>
+  </si>
+  <si>
+    <t>Розрахунково-платіжна відомість за ЛИСТОПАД 2021 року</t>
   </si>
 </sst>
 </file>
@@ -839,7 +842,7 @@
   <dimension ref="A2:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E8"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -866,7 +869,7 @@
     </row>
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="A3" s="46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
@@ -984,7 +987,7 @@
         <v>88</v>
       </c>
       <c r="F9" s="5">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="5">
         <f>D9/E6*E9</f>
@@ -1136,6 +1139,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="B13:K13"/>
@@ -1146,16 +1159,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -1465,6 +1468,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -1477,11 +1485,6 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
@@ -1794,6 +1797,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -1809,11 +1817,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -2123,6 +2126,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2138,11 +2146,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -2451,6 +2454,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2466,11 +2474,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>

--- a/Фопи/Зарплата ФОП 2021/Угринчук.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Угринчук.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6756"/>
   </bookViews>
   <sheets>
-    <sheet name="10-21  (2)" sheetId="7" r:id="rId1"/>
+    <sheet name="11-21 " sheetId="7" r:id="rId1"/>
     <sheet name="10-21 " sheetId="6" r:id="rId2"/>
     <sheet name="09-21 " sheetId="3" r:id="rId3"/>
     <sheet name="08-21" sheetId="2" r:id="rId4"/>
@@ -537,23 +537,23 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -841,54 +841,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.90625" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-    </row>
-    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
@@ -899,76 +899,76 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="O7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="41" t="s">
+      <c r="P7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="41" t="s">
+      <c r="Q7" s="42" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1001,7 +1001,7 @@
         <v>3000</v>
       </c>
       <c r="L9" s="5">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M9" s="5">
         <f>ROUND((K9-1135)*18/100,2)</f>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="Q9" s="5">
         <f>P9-L9</f>
-        <v>619.30000000000018</v>
+        <v>1119.3000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="L10" s="9">
         <f>L9</f>
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" ref="M10:P10" si="0">SUM(M9:M9)</f>
@@ -1075,30 +1075,30 @@
       </c>
       <c r="Q10" s="5">
         <f>P10-L10</f>
-        <v>619.30000000000018</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
+        <v>1119.3000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M11" s="12"/>
       <c r="Q11" s="13">
         <f>Q10</f>
-        <v>619.30000000000018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="42" t="s">
+        <v>1119.3000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
       <c r="L13" s="14">
         <v>0.22</v>
       </c>
@@ -1108,361 +1108,32 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M14" s="17"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N15" s="18"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="42" t="s">
+    <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
       <c r="M16" s="19">
         <f>O10+M13</f>
         <v>1700.7</v>
-      </c>
-      <c r="O16" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q16"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="7" width="10.6328125" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.90625" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-    </row>
-    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-    </row>
-    <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="20">
-        <v>2592218637</v>
-      </c>
-      <c r="D9" s="5">
-        <v>6000</v>
-      </c>
-      <c r="E9" s="5">
-        <v>88</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="G9" s="5">
-        <f>D9/E6*E9</f>
-        <v>3161.6766467065868</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="7">
-        <f>G9+H9+I9+J9</f>
-        <v>3161.6766467065868</v>
-      </c>
-      <c r="L9" s="5">
-        <v>2000</v>
-      </c>
-      <c r="M9" s="5">
-        <f>ROUND((K9-1135)*18/100,2)</f>
-        <v>364.8</v>
-      </c>
-      <c r="N9" s="5">
-        <f>K9*0.015</f>
-        <v>47.425149700598801</v>
-      </c>
-      <c r="O9" s="5">
-        <f>M9+N9</f>
-        <v>412.22514970059882</v>
-      </c>
-      <c r="P9" s="5">
-        <f>K9-O9</f>
-        <v>2749.4514970059881</v>
-      </c>
-      <c r="Q9" s="5">
-        <f>P9-L9</f>
-        <v>749.45149700598813</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9">
-        <f>SUM(D9:D9)</f>
-        <v>6000</v>
-      </c>
-      <c r="E10" s="9">
-        <f>E9</f>
-        <v>88</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9">
-        <f>SUM(G9)</f>
-        <v>3161.6766467065868</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9">
-        <f>SUM(I9)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10">
-        <f>SUM(K9:K9)</f>
-        <v>3161.6766467065868</v>
-      </c>
-      <c r="L10" s="9">
-        <f>L9</f>
-        <v>2000</v>
-      </c>
-      <c r="M10" s="11">
-        <f t="shared" ref="M10:P10" si="0">SUM(M9:M9)</f>
-        <v>364.8</v>
-      </c>
-      <c r="N10" s="11">
-        <f t="shared" si="0"/>
-        <v>47.425149700598801</v>
-      </c>
-      <c r="O10" s="11">
-        <f t="shared" si="0"/>
-        <v>412.22514970059882</v>
-      </c>
-      <c r="P10" s="11">
-        <f t="shared" si="0"/>
-        <v>2749.4514970059881</v>
-      </c>
-      <c r="Q10" s="5">
-        <f>P10-L10</f>
-        <v>749.45149700598813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
-      <c r="M11" s="12"/>
-      <c r="Q11" s="13">
-        <f>Q10</f>
-        <v>749.45149700598813</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="M13" s="15">
-        <v>1320</v>
-      </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="M14" s="17"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-    </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N15" s="18"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-    </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="M16" s="19">
-        <f>O10+M13</f>
-        <v>1732.2251497005989</v>
       </c>
       <c r="O16" s="16"/>
     </row>
@@ -1495,58 +1166,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.90625" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-    </row>
-    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
@@ -1557,76 +1228,76 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="O7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="41" t="s">
+      <c r="P7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="41" t="s">
+      <c r="Q7" s="42" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1642,44 +1313,44 @@
         <v>6000</v>
       </c>
       <c r="E9" s="5">
-        <v>88</v>
+        <v>83.5</v>
       </c>
       <c r="F9" s="5">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="5">
         <f>D9/E6*E9</f>
-        <v>3161.6766467065868</v>
+        <v>3000</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="7">
         <f>G9+H9+I9+J9</f>
-        <v>3161.6766467065868</v>
+        <v>3000</v>
       </c>
       <c r="L9" s="5">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M9" s="5">
         <f>ROUND((K9-1135)*18/100,2)</f>
-        <v>364.8</v>
+        <v>335.7</v>
       </c>
       <c r="N9" s="5">
         <f>K9*0.015</f>
-        <v>47.425149700598801</v>
+        <v>45</v>
       </c>
       <c r="O9" s="5">
         <f>M9+N9</f>
-        <v>412.22514970059882</v>
+        <v>380.7</v>
       </c>
       <c r="P9" s="5">
         <f>K9-O9</f>
-        <v>2749.4514970059881</v>
+        <v>2619.3000000000002</v>
       </c>
       <c r="Q9" s="5">
         <f>P9-L9</f>
-        <v>749.45149700598813</v>
+        <v>1119.3000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1694,12 +1365,12 @@
       </c>
       <c r="E10" s="9">
         <f>E9</f>
-        <v>88</v>
+        <v>83.5</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9">
         <f>SUM(G9)</f>
-        <v>3161.6766467065868</v>
+        <v>3000</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9">
@@ -1709,54 +1380,54 @@
       <c r="J10" s="9"/>
       <c r="K10" s="10">
         <f>SUM(K9:K9)</f>
-        <v>3161.6766467065868</v>
+        <v>3000</v>
       </c>
       <c r="L10" s="9">
         <f>L9</f>
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" ref="M10:P10" si="0">SUM(M9:M9)</f>
-        <v>364.8</v>
+        <v>335.7</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="0"/>
-        <v>47.425149700598801</v>
+        <v>45</v>
       </c>
       <c r="O10" s="11">
         <f t="shared" si="0"/>
-        <v>412.22514970059882</v>
+        <v>380.7</v>
       </c>
       <c r="P10" s="11">
         <f t="shared" si="0"/>
-        <v>2749.4514970059881</v>
+        <v>2619.3000000000002</v>
       </c>
       <c r="Q10" s="5">
         <f>P10-L10</f>
-        <v>749.45149700598813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
+        <v>1119.3000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M11" s="12"/>
       <c r="Q11" s="13">
         <f>Q10</f>
-        <v>749.45149700598813</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="42" t="s">
+        <v>1119.3000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
       <c r="L13" s="14">
         <v>0.22</v>
       </c>
@@ -1766,42 +1437,37 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M14" s="17"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N15" s="18"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="42" t="s">
+    <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
       <c r="M16" s="19">
         <f>O10+M13</f>
-        <v>1732.2251497005989</v>
+        <v>1700.7</v>
       </c>
       <c r="O16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -1817,6 +1483,340 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q16"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+    </row>
+    <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="20">
+        <v>2592218637</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>88</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G9" s="5">
+        <f>D9/E6*E9</f>
+        <v>3161.6766467065868</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="7">
+        <f>G9+H9+I9+J9</f>
+        <v>3161.6766467065868</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2000</v>
+      </c>
+      <c r="M9" s="5">
+        <f>ROUND((K9-1135)*18/100,2)</f>
+        <v>364.8</v>
+      </c>
+      <c r="N9" s="5">
+        <f>K9*0.015</f>
+        <v>47.425149700598801</v>
+      </c>
+      <c r="O9" s="5">
+        <f>M9+N9</f>
+        <v>412.22514970059882</v>
+      </c>
+      <c r="P9" s="5">
+        <f>K9-O9</f>
+        <v>2749.4514970059881</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>P9-L9</f>
+        <v>749.45149700598813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9">
+        <f>SUM(D9:D9)</f>
+        <v>6000</v>
+      </c>
+      <c r="E10" s="9">
+        <f>E9</f>
+        <v>88</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9">
+        <f>SUM(G9)</f>
+        <v>3161.6766467065868</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9">
+        <f>SUM(I9)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10">
+        <f>SUM(K9:K9)</f>
+        <v>3161.6766467065868</v>
+      </c>
+      <c r="L10" s="9">
+        <f>L9</f>
+        <v>2000</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" ref="M10:P10" si="0">SUM(M9:M9)</f>
+        <v>364.8</v>
+      </c>
+      <c r="N10" s="11">
+        <f t="shared" si="0"/>
+        <v>47.425149700598801</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="0"/>
+        <v>412.22514970059882</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" si="0"/>
+        <v>2749.4514970059881</v>
+      </c>
+      <c r="Q10" s="5">
+        <f>P10-L10</f>
+        <v>749.45149700598813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M11" s="12"/>
+      <c r="Q11" s="13">
+        <f>Q10</f>
+        <v>749.45149700598813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="M13" s="15">
+        <v>1320</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M14" s="17"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N15" s="18"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="M16" s="19">
+        <f>O10+M13</f>
+        <v>1732.2251497005989</v>
+      </c>
+      <c r="O16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -1832,50 +1832,50 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.90625" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-    </row>
-    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
@@ -1886,76 +1886,76 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="O7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="41" t="s">
+      <c r="P7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="41" t="s">
+      <c r="Q7" s="42" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -2065,27 +2065,27 @@
         <v>633.76461077844306</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M11" s="12"/>
       <c r="Q11" s="13">
         <f>Q10</f>
         <v>633.76461077844306</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="42" t="s">
+    <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
       <c r="L13" s="14">
         <v>0.22</v>
       </c>
@@ -2095,29 +2095,29 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M14" s="17"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N15" s="18"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="42" t="s">
+    <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
       <c r="M16" s="19">
         <f>O10+M13</f>
         <v>1704.1994610778443</v>
@@ -2126,11 +2126,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2146,6 +2141,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -2161,50 +2161,50 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.90625" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-    </row>
-    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
@@ -2215,76 +2215,76 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="O7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="41" t="s">
+      <c r="P7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="41" t="s">
+      <c r="Q7" s="42" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
     </row>
     <row r="9" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -2392,27 +2392,27 @@
         <v>1192.2536363636366</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M11" s="12"/>
       <c r="Q11" s="13">
         <f>Q10</f>
         <v>1192.2536363636366</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="42" t="s">
+    <row r="12" spans="1:17" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
       <c r="L13" s="14">
         <v>0.22</v>
       </c>
@@ -2423,29 +2423,29 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M14" s="17"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N15" s="18"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="42" t="s">
+    <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
       <c r="M16" s="19">
         <f>O10+M13</f>
         <v>305.01909090909095</v>
@@ -2454,11 +2454,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2474,6 +2469,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -2486,270 +2486,270 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
-    <col min="4" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="257" max="257" width="13" customWidth="1"/>
-    <col min="258" max="258" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="13.6328125" customWidth="1"/>
-    <col min="260" max="262" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="13.6640625" customWidth="1"/>
+    <col min="260" max="262" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="513" max="513" width="13" customWidth="1"/>
-    <col min="514" max="514" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="13.6328125" customWidth="1"/>
-    <col min="516" max="518" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="13.6640625" customWidth="1"/>
+    <col min="516" max="518" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="769" max="769" width="13" customWidth="1"/>
-    <col min="770" max="770" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="13.6328125" customWidth="1"/>
-    <col min="772" max="774" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="13.6640625" customWidth="1"/>
+    <col min="772" max="774" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="1025" max="1025" width="13" customWidth="1"/>
-    <col min="1026" max="1026" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="13.6328125" customWidth="1"/>
-    <col min="1028" max="1030" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="13.6640625" customWidth="1"/>
+    <col min="1028" max="1030" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="1281" max="1281" width="13" customWidth="1"/>
-    <col min="1282" max="1282" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="13.6328125" customWidth="1"/>
-    <col min="1284" max="1286" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="13.6640625" customWidth="1"/>
+    <col min="1284" max="1286" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="1537" max="1537" width="13" customWidth="1"/>
-    <col min="1538" max="1538" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="13.6328125" customWidth="1"/>
-    <col min="1540" max="1542" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="13.6640625" customWidth="1"/>
+    <col min="1540" max="1542" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="1793" max="1793" width="13" customWidth="1"/>
-    <col min="1794" max="1794" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="13.6328125" customWidth="1"/>
-    <col min="1796" max="1798" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="13.6640625" customWidth="1"/>
+    <col min="1796" max="1798" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2049" max="2049" width="13" customWidth="1"/>
-    <col min="2050" max="2050" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="13.6328125" customWidth="1"/>
-    <col min="2052" max="2054" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="13.6640625" customWidth="1"/>
+    <col min="2052" max="2054" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2305" max="2305" width="13" customWidth="1"/>
-    <col min="2306" max="2306" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="13.6328125" customWidth="1"/>
-    <col min="2308" max="2310" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="13.6640625" customWidth="1"/>
+    <col min="2308" max="2310" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2561" max="2561" width="13" customWidth="1"/>
-    <col min="2562" max="2562" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="13.6328125" customWidth="1"/>
-    <col min="2564" max="2566" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="13.6640625" customWidth="1"/>
+    <col min="2564" max="2566" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2817" max="2817" width="13" customWidth="1"/>
-    <col min="2818" max="2818" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="13.6328125" customWidth="1"/>
-    <col min="2820" max="2822" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="13.6640625" customWidth="1"/>
+    <col min="2820" max="2822" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3073" max="3073" width="13" customWidth="1"/>
-    <col min="3074" max="3074" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="13.6328125" customWidth="1"/>
-    <col min="3076" max="3078" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="13.6640625" customWidth="1"/>
+    <col min="3076" max="3078" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3329" max="3329" width="13" customWidth="1"/>
-    <col min="3330" max="3330" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="13.6328125" customWidth="1"/>
-    <col min="3332" max="3334" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="13.6640625" customWidth="1"/>
+    <col min="3332" max="3334" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3585" max="3585" width="13" customWidth="1"/>
-    <col min="3586" max="3586" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="13.6328125" customWidth="1"/>
-    <col min="3588" max="3590" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="13.6640625" customWidth="1"/>
+    <col min="3588" max="3590" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3841" max="3841" width="13" customWidth="1"/>
-    <col min="3842" max="3842" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="13.6328125" customWidth="1"/>
-    <col min="3844" max="3846" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="13.6640625" customWidth="1"/>
+    <col min="3844" max="3846" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4097" max="4097" width="13" customWidth="1"/>
-    <col min="4098" max="4098" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="13.6328125" customWidth="1"/>
-    <col min="4100" max="4102" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="13.6640625" customWidth="1"/>
+    <col min="4100" max="4102" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4353" max="4353" width="13" customWidth="1"/>
-    <col min="4354" max="4354" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="13.6328125" customWidth="1"/>
-    <col min="4356" max="4358" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="13.6640625" customWidth="1"/>
+    <col min="4356" max="4358" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4609" max="4609" width="13" customWidth="1"/>
-    <col min="4610" max="4610" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="13.6328125" customWidth="1"/>
-    <col min="4612" max="4614" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="13.6640625" customWidth="1"/>
+    <col min="4612" max="4614" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4865" max="4865" width="13" customWidth="1"/>
-    <col min="4866" max="4866" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="13.6328125" customWidth="1"/>
-    <col min="4868" max="4870" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="13.6640625" customWidth="1"/>
+    <col min="4868" max="4870" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5121" max="5121" width="13" customWidth="1"/>
-    <col min="5122" max="5122" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="13.6328125" customWidth="1"/>
-    <col min="5124" max="5126" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="13.6640625" customWidth="1"/>
+    <col min="5124" max="5126" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5377" max="5377" width="13" customWidth="1"/>
-    <col min="5378" max="5378" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="13.6328125" customWidth="1"/>
-    <col min="5380" max="5382" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="13.6640625" customWidth="1"/>
+    <col min="5380" max="5382" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5633" max="5633" width="13" customWidth="1"/>
-    <col min="5634" max="5634" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="13.6328125" customWidth="1"/>
-    <col min="5636" max="5638" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="13.6640625" customWidth="1"/>
+    <col min="5636" max="5638" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5889" max="5889" width="13" customWidth="1"/>
-    <col min="5890" max="5890" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="13.6328125" customWidth="1"/>
-    <col min="5892" max="5894" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="13.6640625" customWidth="1"/>
+    <col min="5892" max="5894" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6145" max="6145" width="13" customWidth="1"/>
-    <col min="6146" max="6146" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="13.6328125" customWidth="1"/>
-    <col min="6148" max="6150" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="13.6640625" customWidth="1"/>
+    <col min="6148" max="6150" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6401" max="6401" width="13" customWidth="1"/>
-    <col min="6402" max="6402" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="13.6328125" customWidth="1"/>
-    <col min="6404" max="6406" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="13.6640625" customWidth="1"/>
+    <col min="6404" max="6406" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6657" max="6657" width="13" customWidth="1"/>
-    <col min="6658" max="6658" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="13.6328125" customWidth="1"/>
-    <col min="6660" max="6662" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="13.6640625" customWidth="1"/>
+    <col min="6660" max="6662" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6913" max="6913" width="13" customWidth="1"/>
-    <col min="6914" max="6914" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="13.6328125" customWidth="1"/>
-    <col min="6916" max="6918" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="13.6640625" customWidth="1"/>
+    <col min="6916" max="6918" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7169" max="7169" width="13" customWidth="1"/>
-    <col min="7170" max="7170" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="13.6328125" customWidth="1"/>
-    <col min="7172" max="7174" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="13.6640625" customWidth="1"/>
+    <col min="7172" max="7174" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7425" max="7425" width="13" customWidth="1"/>
-    <col min="7426" max="7426" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="13.6328125" customWidth="1"/>
-    <col min="7428" max="7430" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="13.6640625" customWidth="1"/>
+    <col min="7428" max="7430" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7681" max="7681" width="13" customWidth="1"/>
-    <col min="7682" max="7682" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="13.6328125" customWidth="1"/>
-    <col min="7684" max="7686" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="13.6640625" customWidth="1"/>
+    <col min="7684" max="7686" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7937" max="7937" width="13" customWidth="1"/>
-    <col min="7938" max="7938" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="13.6328125" customWidth="1"/>
-    <col min="7940" max="7942" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="13.6640625" customWidth="1"/>
+    <col min="7940" max="7942" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8193" max="8193" width="13" customWidth="1"/>
-    <col min="8194" max="8194" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="13.6328125" customWidth="1"/>
-    <col min="8196" max="8198" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="13.6640625" customWidth="1"/>
+    <col min="8196" max="8198" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8449" max="8449" width="13" customWidth="1"/>
-    <col min="8450" max="8450" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="13.6328125" customWidth="1"/>
-    <col min="8452" max="8454" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="13.6640625" customWidth="1"/>
+    <col min="8452" max="8454" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8705" max="8705" width="13" customWidth="1"/>
-    <col min="8706" max="8706" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="13.6328125" customWidth="1"/>
-    <col min="8708" max="8710" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="13.6640625" customWidth="1"/>
+    <col min="8708" max="8710" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8961" max="8961" width="13" customWidth="1"/>
-    <col min="8962" max="8962" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="13.6328125" customWidth="1"/>
-    <col min="8964" max="8966" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="13.6640625" customWidth="1"/>
+    <col min="8964" max="8966" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9217" max="9217" width="13" customWidth="1"/>
-    <col min="9218" max="9218" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="13.6328125" customWidth="1"/>
-    <col min="9220" max="9222" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="13.6640625" customWidth="1"/>
+    <col min="9220" max="9222" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9473" max="9473" width="13" customWidth="1"/>
-    <col min="9474" max="9474" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="13.6328125" customWidth="1"/>
-    <col min="9476" max="9478" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="13.6640625" customWidth="1"/>
+    <col min="9476" max="9478" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9729" max="9729" width="13" customWidth="1"/>
-    <col min="9730" max="9730" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="13.6328125" customWidth="1"/>
-    <col min="9732" max="9734" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="13.6640625" customWidth="1"/>
+    <col min="9732" max="9734" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9985" max="9985" width="13" customWidth="1"/>
-    <col min="9986" max="9986" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="13.6328125" customWidth="1"/>
-    <col min="9988" max="9990" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="13.6640625" customWidth="1"/>
+    <col min="9988" max="9990" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="10241" max="10241" width="13" customWidth="1"/>
-    <col min="10242" max="10242" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="13.6328125" customWidth="1"/>
-    <col min="10244" max="10246" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="13.6640625" customWidth="1"/>
+    <col min="10244" max="10246" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="10497" max="10497" width="13" customWidth="1"/>
-    <col min="10498" max="10498" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="13.6328125" customWidth="1"/>
-    <col min="10500" max="10502" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="13.6640625" customWidth="1"/>
+    <col min="10500" max="10502" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="10753" max="10753" width="13" customWidth="1"/>
-    <col min="10754" max="10754" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="13.6328125" customWidth="1"/>
-    <col min="10756" max="10758" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="13.6640625" customWidth="1"/>
+    <col min="10756" max="10758" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="11009" max="11009" width="13" customWidth="1"/>
-    <col min="11010" max="11010" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="13.6328125" customWidth="1"/>
-    <col min="11012" max="11014" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="13.6640625" customWidth="1"/>
+    <col min="11012" max="11014" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="11265" max="11265" width="13" customWidth="1"/>
-    <col min="11266" max="11266" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="13.6328125" customWidth="1"/>
-    <col min="11268" max="11270" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="13.6640625" customWidth="1"/>
+    <col min="11268" max="11270" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="11521" max="11521" width="13" customWidth="1"/>
-    <col min="11522" max="11522" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="13.6328125" customWidth="1"/>
-    <col min="11524" max="11526" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="13.6640625" customWidth="1"/>
+    <col min="11524" max="11526" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="11777" max="11777" width="13" customWidth="1"/>
-    <col min="11778" max="11778" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="13.6328125" customWidth="1"/>
-    <col min="11780" max="11782" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="13.6640625" customWidth="1"/>
+    <col min="11780" max="11782" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="12033" max="12033" width="13" customWidth="1"/>
-    <col min="12034" max="12034" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="13.6328125" customWidth="1"/>
-    <col min="12036" max="12038" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="13.6640625" customWidth="1"/>
+    <col min="12036" max="12038" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="12289" max="12289" width="13" customWidth="1"/>
-    <col min="12290" max="12290" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="13.6328125" customWidth="1"/>
-    <col min="12292" max="12294" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="13.6640625" customWidth="1"/>
+    <col min="12292" max="12294" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="12545" max="12545" width="13" customWidth="1"/>
-    <col min="12546" max="12546" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="13.6328125" customWidth="1"/>
-    <col min="12548" max="12550" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="13.6640625" customWidth="1"/>
+    <col min="12548" max="12550" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="12801" max="12801" width="13" customWidth="1"/>
-    <col min="12802" max="12802" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="13.6328125" customWidth="1"/>
-    <col min="12804" max="12806" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="13.6640625" customWidth="1"/>
+    <col min="12804" max="12806" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="13057" max="13057" width="13" customWidth="1"/>
-    <col min="13058" max="13058" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="13.6328125" customWidth="1"/>
-    <col min="13060" max="13062" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="13.6640625" customWidth="1"/>
+    <col min="13060" max="13062" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="13313" max="13313" width="13" customWidth="1"/>
-    <col min="13314" max="13314" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="13.6328125" customWidth="1"/>
-    <col min="13316" max="13318" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="13.6640625" customWidth="1"/>
+    <col min="13316" max="13318" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="13569" max="13569" width="13" customWidth="1"/>
-    <col min="13570" max="13570" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="13.6328125" customWidth="1"/>
-    <col min="13572" max="13574" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="13.6640625" customWidth="1"/>
+    <col min="13572" max="13574" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="13825" max="13825" width="13" customWidth="1"/>
-    <col min="13826" max="13826" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="13.6328125" customWidth="1"/>
-    <col min="13828" max="13830" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="13.6640625" customWidth="1"/>
+    <col min="13828" max="13830" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="14081" max="14081" width="13" customWidth="1"/>
-    <col min="14082" max="14082" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="13.6328125" customWidth="1"/>
-    <col min="14084" max="14086" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="13.6640625" customWidth="1"/>
+    <col min="14084" max="14086" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="14337" max="14337" width="13" customWidth="1"/>
-    <col min="14338" max="14338" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="13.6328125" customWidth="1"/>
-    <col min="14340" max="14342" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="13.6640625" customWidth="1"/>
+    <col min="14340" max="14342" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="14593" max="14593" width="13" customWidth="1"/>
-    <col min="14594" max="14594" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="13.6328125" customWidth="1"/>
-    <col min="14596" max="14598" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="13.6640625" customWidth="1"/>
+    <col min="14596" max="14598" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="14849" max="14849" width="13" customWidth="1"/>
-    <col min="14850" max="14850" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="13.6328125" customWidth="1"/>
-    <col min="14852" max="14854" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="13.6640625" customWidth="1"/>
+    <col min="14852" max="14854" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="15105" max="15105" width="13" customWidth="1"/>
-    <col min="15106" max="15106" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="13.6328125" customWidth="1"/>
-    <col min="15108" max="15110" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="13.6640625" customWidth="1"/>
+    <col min="15108" max="15110" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="15361" max="15361" width="13" customWidth="1"/>
-    <col min="15362" max="15362" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="13.6328125" customWidth="1"/>
-    <col min="15364" max="15366" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="13.6640625" customWidth="1"/>
+    <col min="15364" max="15366" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="15617" max="15617" width="13" customWidth="1"/>
-    <col min="15618" max="15618" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="13.6328125" customWidth="1"/>
-    <col min="15620" max="15622" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="13.6640625" customWidth="1"/>
+    <col min="15620" max="15622" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="15873" max="15873" width="13" customWidth="1"/>
-    <col min="15874" max="15874" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="13.6328125" customWidth="1"/>
-    <col min="15876" max="15878" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="13.6640625" customWidth="1"/>
+    <col min="15876" max="15878" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="16129" max="16129" width="13" customWidth="1"/>
-    <col min="16130" max="16130" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="13.6328125" customWidth="1"/>
-    <col min="16132" max="16134" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="13.6640625" customWidth="1"/>
+    <col min="16132" max="16134" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
       <c r="B1" s="21" t="s">
         <v>24</v>
@@ -2785,24 +2785,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="str">
         <f>A15</f>
         <v>грудень</v>
       </c>
-      <c r="B3" s="22">
-        <v>10</v>
-      </c>
-      <c r="C3" s="22">
-        <v>40</v>
-      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="24"/>
-      <c r="F3" s="22">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>29</v>
       </c>
@@ -2812,7 +2806,7 @@
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
     </row>
-    <row r="5" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>30</v>
       </c>
@@ -2822,7 +2816,7 @@
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>31</v>
       </c>
@@ -2832,7 +2826,7 @@
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
     </row>
-    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>32</v>
       </c>
@@ -2842,7 +2836,7 @@
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
     </row>
-    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>33</v>
       </c>
@@ -2852,7 +2846,7 @@
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
     </row>
-    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>34</v>
       </c>
@@ -2862,7 +2856,7 @@
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
     </row>
-    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>35</v>
       </c>
@@ -2878,9 +2872,11 @@
       <c r="E10" s="26">
         <v>18.41</v>
       </c>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="F10" s="26">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>36</v>
       </c>
@@ -2896,9 +2892,11 @@
       <c r="E11" s="26">
         <v>45.27</v>
       </c>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="F11" s="26">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>37</v>
       </c>
@@ -2909,34 +2907,56 @@
         <v>1320</v>
       </c>
       <c r="D12" s="26">
-        <v>364.8</v>
+        <v>338.93</v>
       </c>
       <c r="E12" s="26">
-        <v>47.43</v>
-      </c>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+        <v>45.27</v>
+      </c>
+      <c r="F12" s="26">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="B13" s="26">
+        <v>1320</v>
+      </c>
+      <c r="C13" s="26">
+        <v>1320</v>
+      </c>
+      <c r="D13" s="26">
+        <v>338.93</v>
+      </c>
+      <c r="E13" s="26">
+        <v>45.27</v>
+      </c>
+      <c r="F13" s="26">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="B14" s="26">
+        <v>1320</v>
+      </c>
+      <c r="C14" s="26">
+        <v>1320</v>
+      </c>
+      <c r="D14" s="26">
+        <v>338.93</v>
+      </c>
+      <c r="E14" s="26">
+        <v>45.27</v>
+      </c>
+      <c r="F14" s="26">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>40</v>
       </c>
@@ -2944,34 +2964,36 @@
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="F15" s="26">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="28">
         <f>SUM(B4:B15)</f>
-        <v>2910</v>
+        <v>5550</v>
       </c>
       <c r="C16" s="28">
         <f>SUM(C4:C15)</f>
-        <v>3960</v>
+        <v>6600</v>
       </c>
       <c r="D16" s="28">
         <f>SUM(D4:D15)</f>
-        <v>720.34</v>
+        <v>1372.3300000000002</v>
       </c>
       <c r="E16" s="28">
         <f>SUM(E4:E15)</f>
-        <v>111.11000000000001</v>
+        <v>199.49000000000004</v>
       </c>
       <c r="F16" s="28">
         <f>SUM(F4:F15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>42</v>
       </c>
@@ -2991,32 +3013,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="34">
         <f>B17-B16+B3</f>
-        <v>-2900</v>
+        <v>-5550</v>
       </c>
       <c r="C18" s="34">
         <f>C17-C16+C3</f>
-        <v>-3920</v>
+        <v>-6600</v>
       </c>
       <c r="D18" s="35">
         <f>D17-D16+D3</f>
-        <v>-720.34</v>
+        <v>-1372.3300000000002</v>
       </c>
       <c r="E18" s="35">
         <f>E17-E16+E3</f>
-        <v>-111.11000000000001</v>
+        <v>-199.49000000000004</v>
       </c>
       <c r="F18" s="35">
         <f>F17-F16+F3</f>
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.4">
+        <v>-5400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="36"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -3026,11 +3048,11 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
     </row>
-    <row r="21" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="F21" s="39"/>
     </row>
-    <row r="24" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
@@ -3049,7 +3071,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
